--- a/biology/Zoologie/Amolops_bellulus/Amolops_bellulus.xlsx
+++ b/biology/Zoologie/Amolops_bellulus/Amolops_bellulus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amolops bellulus est une espèce d'amphibiens de la famille des Ranidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amolops bellulus est une espèce d'amphibiens de la famille des Ranidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du xian de Lushui dans la province du Yunnan en République populaire de Chine[1]. Sa présence est incertaine en Birmanie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du xian de Lushui dans la province du Yunnan en République populaire de Chine. Sa présence est incertaine en Birmanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amolops bellulus mesure en moyenne 50 mm pour les mâles et 64 mm pour les femelles. Son dos est beige avec des taches vertes et brunes. Son ventre tire sur le jaunâtre avec des nuances de brun-gris au niveau de la gorge et du thorax[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amolops bellulus mesure en moyenne 50 mm pour les mâles et 64 mm pour les femelles. Son dos est beige avec des taches vertes et brunes. Son ventre tire sur le jaunâtre avec des nuances de brun-gris au niveau de la gorge et du thorax.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liu, Yang, Ferraris &amp; Matsui, 2000 : Amolops bellulus: a new species of stream-breeding frog from western Yunnan, China (Anura: Ranidae). Copeia, vol. 2000, no 2, p. 536-541.</t>
         </is>
